--- a/biology/Médecine/1444_en_santé_et_médecine/1444_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1444_en_santé_et_médecine/1444_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1444_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1444_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1444 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1444_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1444_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Grignan, en Provence, d'un premier hôpital intra-muros qui est à l'origine de l'hôtel-Dieu de la Croix, devenu asile, pensionnat, école primaire de filles et dont les bâtiments abritent aujourd'hui la poste et la bibliothèque de la commune[1].
-Fondation par le pape Eugène IV et le roi Alphonse V de l'université de Catane en Sicile, où la médecine est enseignée dès l'origine[2].
-À l'initiative du duc Adolphe Ier, fondation à Clèves, en Allemagne, de l'Arme-Diener-Hof, maison d'aumône conçue pour « quatre anciens serviteurs de la cour ducale, pauvres et incapables de subvenir à leurs besoins[3] ».
-Alphonse le Magnifique, roi de Naples, sur le modèle institué dès 1429 par Jean II en Castille[4], nomme un premier protomedico (it) de Sicile, son médecin personnel, Jaume Quintana[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Grignan, en Provence, d'un premier hôpital intra-muros qui est à l'origine de l'hôtel-Dieu de la Croix, devenu asile, pensionnat, école primaire de filles et dont les bâtiments abritent aujourd'hui la poste et la bibliothèque de la commune.
+Fondation par le pape Eugène IV et le roi Alphonse V de l'université de Catane en Sicile, où la médecine est enseignée dès l'origine.
+À l'initiative du duc Adolphe Ier, fondation à Clèves, en Allemagne, de l'Arme-Diener-Hof, maison d'aumône conçue pour « quatre anciens serviteurs de la cour ducale, pauvres et incapables de subvenir à leurs besoins ».
+Alphonse le Magnifique, roi de Naples, sur le modèle institué dès 1429 par Jean II en Castille, nomme un premier protomedico (it) de Sicile, son médecin personnel, Jaume Quintana.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1444_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1444_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1444-1446 : fl. Thomas Berthonel, docteur en médecine, établi à Toulouse[6].
-1444-1461 : fl. Josse Bruninc, chirurgien au service du duc de Bourgogne et du comte de Charolais, assiste la comtesse Isabelle en 1457 à la naissance de Marie, très certainement parent de Jean (fl. 1461-1477) et de Laurent Bruninc († 1498), également chirurgiens[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1444-1446 : fl. Thomas Berthonel, docteur en médecine, établi à Toulouse.
+1444-1461 : fl. Josse Bruninc, chirurgien au service du duc de Bourgogne et du comte de Charolais, assiste la comtesse Isabelle en 1457 à la naissance de Marie, très certainement parent de Jean (fl. 1461-1477) et de Laurent Bruninc († 1498), également chirurgiens.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1444_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1444_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1441 ou 1444[8] : Antonio de Nebrija (mort en 1522), historiographe du Roi catholique, auteur d'un Lexicon artis medicamentariae publié à Alcalá de Henares en 1518[9].
-1444 ou 1448 : Antonio De Ferrariis (mort en 1517), médecin et humaniste italien, attaché à la cour de Ferdinand Ier à Naples, praticien à Gallipoli dans le Salento, et auteur de nombreux ouvrages dont un traité sur la goutte (De podagra[10]).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1441 ou 1444 : Antonio de Nebrija (mort en 1522), historiographe du Roi catholique, auteur d'un Lexicon artis medicamentariae publié à Alcalá de Henares en 1518.
+1444 ou 1448 : Antonio De Ferrariis (mort en 1517), médecin et humaniste italien, attaché à la cour de Ferdinand Ier à Naples, praticien à Gallipoli dans le Salento, et auteur de nombreux ouvrages dont un traité sur la goutte (De podagra).</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1444_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1444_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Antoine de Maglanis (né à une date inconnue), médecin de Guillaume de Challant, évêque de Lausanne, et d'Amédée VIII, comte de Savoie[6].
-Mossé de Pampelune (né à une date inconnue), médecin juif d'Avignon ; son fils ne pouvant lui succéder, il lègue ses livres de médecine à son petit-fils, Ferrussol, et à Isaac de Lattes, de Salon[11].
-Shimon ben Tsemah Duran (né en 1361), philosophe, astronome, mathématicien et médecin juif d'origine provençale, né à Palma et réfugié à Alger, ayant pratiqué la médecine dans l'une et l'autre de ces villes, et devenu rabbin de la deuxième[12],[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Antoine de Maglanis (né à une date inconnue), médecin de Guillaume de Challant, évêque de Lausanne, et d'Amédée VIII, comte de Savoie.
+Mossé de Pampelune (né à une date inconnue), médecin juif d'Avignon ; son fils ne pouvant lui succéder, il lègue ses livres de médecine à son petit-fils, Ferrussol, et à Isaac de Lattes, de Salon.
+Shimon ben Tsemah Duran (né en 1361), philosophe, astronome, mathématicien et médecin juif d'origine provençale, né à Palma et réfugié à Alger, ayant pratiqué la médecine dans l'une et l'autre de ces villes, et devenu rabbin de la deuxième,.</t>
         </is>
       </c>
     </row>
